--- a/Student Version Summer 25/Design Input Files/Design Input File_V25-00-SUMMER.xlsx
+++ b/Student Version Summer 25/Design Input Files/Design Input File_V25-00-SUMMER.xlsx
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -863,9 +863,6 @@
     <t>Geometry Reference</t>
   </si>
   <si>
-    <t>“All Drawings from the Sheet”</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -1453,9 +1450,6 @@
     <t>rho_material_x</t>
   </si>
   <si>
-    <t>Config3</t>
-  </si>
-  <si>
     <t>Cl_neg5</t>
   </si>
   <si>
@@ -1574,9 +1568,6 @@
   </si>
   <si>
     <t>NACA 2412</t>
-  </si>
-  <si>
-    <t>BACJ</t>
   </si>
   <si>
     <t>rhoA_foamboard</t>
@@ -1699,7 +1690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1762,11 +1753,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1775,7 +1766,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1783,17 +1774,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -1810,7 +1801,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -1818,12 +1809,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1832,18 +1834,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1867,13 +1858,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1886,7 +1877,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1914,7 +1905,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1924,10 +1915,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,7 +1939,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -2062,7 +2053,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
@@ -2083,7 +2074,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -2093,29 +2084,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2127,7 +2118,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -2136,16 +2127,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2154,28 +2145,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2207,28 +2198,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2246,20 +2237,20 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2342,9 +2333,6 @@
     <xf numFmtId="49" fontId="6" fillId="10" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2370,6 +2358,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2444,7 +2435,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2467,8 +2458,8 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff9cc2e5"/>
       <rgbColor rgb="ffd9dce1"/>
       <rgbColor rgb="ff8eaadb"/>
@@ -2493,13 +2484,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>154304</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>172769</xdr:rowOff>
+      <xdr:rowOff>172768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>207644</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>55802</xdr:rowOff>
+      <xdr:rowOff>55805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2518,8 +2509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="154304" y="3830369"/>
-          <a:ext cx="12258041" cy="6283834"/>
+          <a:off x="154304" y="3830368"/>
+          <a:ext cx="12258041" cy="6283838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2553,7 +2544,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>93474</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:rowOff>9522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2573,7 +2564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2692400" y="0"/>
-          <a:ext cx="7497575" cy="3811904"/>
+          <a:ext cx="7497575" cy="3811903"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2598,7 +2589,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>578961</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38098</xdr:rowOff>
+      <xdr:rowOff>38097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2618,7 +2609,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10229850" y="66675"/>
-          <a:ext cx="5157312" cy="3773804"/>
+          <a:ext cx="5157312" cy="3773803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2732,7 +2723,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>141603</xdr:rowOff>
+      <xdr:rowOff>141602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -2757,8 +2748,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28574" y="6745603"/>
-          <a:ext cx="12980775" cy="6605589"/>
+          <a:off x="28574" y="6745602"/>
+          <a:ext cx="12980775" cy="6605590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3804,7 +3795,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4022,16 +4013,19 @@
       <c r="D22" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23">
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" ht="13" customHeight="1">
+      <c r="A23" s="7"/>
       <c r="B23" t="s" s="3">
         <v>18</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" ht="13" customHeight="1">
+      <c r="A24" s="20"/>
       <c r="B24" s="4"/>
       <c r="C24" t="s" s="4">
         <v>5</v>
@@ -4039,6 +4033,7 @@
       <c r="D24" t="s" s="5">
         <v>18</v>
       </c>
+      <c r="E24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4048,12 +4043,13 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Variable Reference'!R1C1" tooltip="" display="Variable Reference"/>
-    <hyperlink ref="D12" location="'Main_Input'!R1C1" tooltip="" display="Main_Input"/>
-    <hyperlink ref="D14" location="'Airfoil_Data'!R1C1" tooltip="" display="Airfoil_Data"/>
-    <hyperlink ref="D16" location="'Component_Data'!R1C1" tooltip="" display="Component_Data"/>
-    <hyperlink ref="D18" location="'Materials'!R1C1" tooltip="" display="Materials"/>
-    <hyperlink ref="D20" location="'Benchmark_Truth'!R1C1" tooltip="" display="Benchmark_Truth"/>
-    <hyperlink ref="D22" location="'Geometry Reference'!R1C1" tooltip="" display="Geometry Reference"/>
+    <hyperlink ref="D12" location="'Variable Reference'!R1C1" tooltip="" display="Variable Reference"/>
+    <hyperlink ref="D14" location="'Main_Input'!R1C1" tooltip="" display="Main_Input"/>
+    <hyperlink ref="D16" location="'Airfoil_Data'!R1C1" tooltip="" display="Airfoil_Data"/>
+    <hyperlink ref="D18" location="'Component_Data'!R1C1" tooltip="" display="Component_Data"/>
+    <hyperlink ref="D20" location="'Materials'!R1C1" tooltip="" display="Materials"/>
+    <hyperlink ref="D22" location="'Benchmark_Truth'!R1C1" tooltip="" display="Benchmark_Truth"/>
+    <hyperlink ref="D24" location="'Geometry Reference'!R1C1" tooltip="" display="Geometry Reference"/>
     <hyperlink ref="D12" location="'Variable Reference'!R1C1" tooltip="" display="Variable Reference"/>
     <hyperlink ref="D14" location="'Main_Input'!R1C1" tooltip="" display="Main_Input"/>
     <hyperlink ref="D16" location="'Airfoil_Data'!R1C1" tooltip="" display="Airfoil_Data"/>
@@ -4088,16 +4084,16 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s" s="27">
         <v>21</v>
       </c>
-      <c r="B1" t="s" s="27">
+      <c r="C1" t="s" s="27">
         <v>22</v>
       </c>
-      <c r="C1" t="s" s="27">
+      <c r="D1" t="s" s="28">
         <v>23</v>
-      </c>
-      <c r="D1" t="s" s="28">
-        <v>24</v>
       </c>
       <c r="E1" s="29"/>
     </row>
@@ -4106,13 +4102,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s" s="30">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="30">
         <v>25</v>
       </c>
-      <c r="C2" t="s" s="30">
+      <c r="D2" t="s" s="31">
         <v>26</v>
-      </c>
-      <c r="D2" t="s" s="31">
-        <v>27</v>
       </c>
       <c r="E2" s="29"/>
     </row>
@@ -4121,13 +4117,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s" s="30">
         <v>28</v>
       </c>
-      <c r="C3" t="s" s="30">
+      <c r="D3" t="s" s="31">
         <v>29</v>
-      </c>
-      <c r="D3" t="s" s="31">
-        <v>30</v>
       </c>
       <c r="E3" s="29"/>
     </row>
@@ -4136,13 +4132,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="30">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="30">
         <v>31</v>
       </c>
-      <c r="C4" t="s" s="30">
+      <c r="D4" t="s" s="31">
         <v>32</v>
-      </c>
-      <c r="D4" t="s" s="31">
-        <v>33</v>
       </c>
       <c r="E4" s="29"/>
     </row>
@@ -4151,13 +4147,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s" s="31">
         <v>34</v>
-      </c>
-      <c r="C5" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s" s="31">
-        <v>35</v>
       </c>
       <c r="E5" s="29"/>
     </row>
@@ -4166,13 +4162,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="30">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s" s="31">
         <v>36</v>
-      </c>
-      <c r="C6" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s" s="31">
-        <v>37</v>
       </c>
       <c r="E6" s="29"/>
     </row>
@@ -4181,13 +4177,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s" s="30">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="31">
         <v>38</v>
-      </c>
-      <c r="C7" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s" s="31">
-        <v>39</v>
       </c>
       <c r="E7" s="29"/>
     </row>
@@ -4196,13 +4192,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s" s="30">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="31">
         <v>40</v>
-      </c>
-      <c r="C8" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s" s="31">
-        <v>41</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -4211,13 +4207,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s" s="30">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="30">
         <v>42</v>
       </c>
-      <c r="C9" t="s" s="30">
+      <c r="D9" t="s" s="31">
         <v>43</v>
-      </c>
-      <c r="D9" t="s" s="31">
-        <v>44</v>
       </c>
       <c r="E9" s="29"/>
     </row>
@@ -4226,13 +4222,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="30">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s" s="31">
         <v>45</v>
-      </c>
-      <c r="C10" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s" s="31">
-        <v>46</v>
       </c>
       <c r="E10" s="29"/>
     </row>
@@ -4241,13 +4237,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s" s="30">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s" s="31">
         <v>47</v>
-      </c>
-      <c r="C11" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s" s="31">
-        <v>48</v>
       </c>
       <c r="E11" s="29"/>
     </row>
@@ -4256,13 +4252,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s" s="30">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s" s="31">
         <v>49</v>
-      </c>
-      <c r="C12" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s" s="31">
-        <v>50</v>
       </c>
       <c r="E12" s="29"/>
     </row>
@@ -4271,13 +4267,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s" s="30">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s" s="31">
         <v>51</v>
-      </c>
-      <c r="C13" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s" s="31">
-        <v>52</v>
       </c>
       <c r="E13" s="29"/>
     </row>
@@ -4286,13 +4282,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s" s="30">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s" s="31">
         <v>53</v>
-      </c>
-      <c r="C14" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s" s="31">
-        <v>54</v>
       </c>
       <c r="E14" s="29"/>
     </row>
@@ -4301,13 +4297,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s" s="30">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s" s="31">
         <v>55</v>
-      </c>
-      <c r="C15" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s" s="31">
-        <v>56</v>
       </c>
       <c r="E15" s="29"/>
     </row>
@@ -4316,13 +4312,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s" s="30">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s" s="31">
         <v>57</v>
-      </c>
-      <c r="C16" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s" s="31">
-        <v>58</v>
       </c>
       <c r="E16" s="29"/>
     </row>
@@ -4331,13 +4327,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s" s="30">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s" s="31">
         <v>59</v>
-      </c>
-      <c r="C17" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s" s="31">
-        <v>60</v>
       </c>
       <c r="E17" s="29"/>
     </row>
@@ -4346,13 +4342,13 @@
         <v>8</v>
       </c>
       <c r="B18" t="s" s="30">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s" s="30">
         <v>61</v>
       </c>
-      <c r="C18" t="s" s="30">
+      <c r="D18" t="s" s="31">
         <v>62</v>
-      </c>
-      <c r="D18" t="s" s="31">
-        <v>63</v>
       </c>
       <c r="E18" s="29"/>
     </row>
@@ -4361,13 +4357,13 @@
         <v>8</v>
       </c>
       <c r="B19" t="s" s="30">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s" s="31">
         <v>64</v>
-      </c>
-      <c r="C19" t="s" s="30">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s" s="31">
-        <v>65</v>
       </c>
       <c r="E19" s="29"/>
     </row>
@@ -4376,13 +4372,13 @@
         <v>8</v>
       </c>
       <c r="B20" t="s" s="30">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s" s="31">
         <v>66</v>
-      </c>
-      <c r="C20" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s" s="31">
-        <v>67</v>
       </c>
       <c r="E20" s="29"/>
     </row>
@@ -4391,13 +4387,13 @@
         <v>8</v>
       </c>
       <c r="B21" t="s" s="30">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s" s="31">
         <v>68</v>
-      </c>
-      <c r="C21" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s" s="31">
-        <v>69</v>
       </c>
       <c r="E21" s="29"/>
     </row>
@@ -4406,13 +4402,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="s" s="30">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s" s="31">
         <v>70</v>
-      </c>
-      <c r="C22" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s" s="31">
-        <v>71</v>
       </c>
       <c r="E22" s="29"/>
     </row>
@@ -4421,13 +4417,13 @@
         <v>8</v>
       </c>
       <c r="B23" t="s" s="30">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s" s="31">
         <v>72</v>
-      </c>
-      <c r="C23" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s" s="31">
-        <v>73</v>
       </c>
       <c r="E23" s="29"/>
     </row>
@@ -4436,13 +4432,13 @@
         <v>8</v>
       </c>
       <c r="B24" t="s" s="30">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s" s="31">
         <v>74</v>
-      </c>
-      <c r="C24" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s" s="31">
-        <v>75</v>
       </c>
       <c r="E24" s="29"/>
     </row>
@@ -4451,13 +4447,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s" s="30">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s" s="31">
         <v>76</v>
-      </c>
-      <c r="C25" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s" s="31">
-        <v>77</v>
       </c>
       <c r="E25" s="29"/>
     </row>
@@ -4466,13 +4462,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="30">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s" s="31">
         <v>78</v>
-      </c>
-      <c r="C26" t="s" s="30">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s" s="31">
-        <v>79</v>
       </c>
       <c r="E26" s="29"/>
     </row>
@@ -4481,13 +4477,13 @@
         <v>8</v>
       </c>
       <c r="B27" t="s" s="30">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s" s="31">
         <v>80</v>
-      </c>
-      <c r="C27" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s" s="31">
-        <v>81</v>
       </c>
       <c r="E27" s="29"/>
     </row>
@@ -4496,13 +4492,13 @@
         <v>8</v>
       </c>
       <c r="B28" t="s" s="30">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s" s="31">
         <v>82</v>
-      </c>
-      <c r="C28" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s" s="31">
-        <v>83</v>
       </c>
       <c r="E28" s="29"/>
     </row>
@@ -4511,13 +4507,13 @@
         <v>8</v>
       </c>
       <c r="B29" t="s" s="30">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s" s="31">
         <v>84</v>
-      </c>
-      <c r="C29" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s" s="31">
-        <v>85</v>
       </c>
       <c r="E29" s="29"/>
     </row>
@@ -4526,13 +4522,13 @@
         <v>8</v>
       </c>
       <c r="B30" t="s" s="30">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s" s="31">
         <v>86</v>
-      </c>
-      <c r="C30" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s" s="31">
-        <v>87</v>
       </c>
       <c r="E30" s="29"/>
     </row>
@@ -4541,13 +4537,13 @@
         <v>8</v>
       </c>
       <c r="B31" t="s" s="30">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s" s="31">
         <v>88</v>
-      </c>
-      <c r="C31" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="D31" t="s" s="31">
-        <v>89</v>
       </c>
       <c r="E31" s="29"/>
     </row>
@@ -4556,13 +4552,13 @@
         <v>8</v>
       </c>
       <c r="B32" t="s" s="30">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s" s="31">
         <v>90</v>
-      </c>
-      <c r="C32" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s" s="31">
-        <v>91</v>
       </c>
       <c r="E32" s="29"/>
     </row>
@@ -4571,13 +4567,13 @@
         <v>8</v>
       </c>
       <c r="B33" t="s" s="30">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s" s="31">
         <v>92</v>
-      </c>
-      <c r="C33" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s" s="31">
-        <v>93</v>
       </c>
       <c r="E33" s="29"/>
     </row>
@@ -4586,13 +4582,13 @@
         <v>8</v>
       </c>
       <c r="B34" t="s" s="30">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s" s="31">
         <v>94</v>
-      </c>
-      <c r="C34" t="s" s="30">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s" s="31">
-        <v>95</v>
       </c>
       <c r="E34" s="29"/>
     </row>
@@ -4601,13 +4597,13 @@
         <v>8</v>
       </c>
       <c r="B35" t="s" s="30">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s" s="31">
         <v>96</v>
-      </c>
-      <c r="C35" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s" s="31">
-        <v>97</v>
       </c>
       <c r="E35" s="29"/>
     </row>
@@ -4616,13 +4612,13 @@
         <v>8</v>
       </c>
       <c r="B36" t="s" s="30">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s" s="31">
         <v>98</v>
-      </c>
-      <c r="C36" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s" s="31">
-        <v>99</v>
       </c>
       <c r="E36" s="29"/>
     </row>
@@ -4631,13 +4627,13 @@
         <v>8</v>
       </c>
       <c r="B37" t="s" s="30">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s" s="31">
         <v>100</v>
-      </c>
-      <c r="C37" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s" s="31">
-        <v>101</v>
       </c>
       <c r="E37" s="29"/>
     </row>
@@ -4646,13 +4642,13 @@
         <v>8</v>
       </c>
       <c r="B38" t="s" s="30">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s" s="31">
         <v>102</v>
-      </c>
-      <c r="C38" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="D38" t="s" s="31">
-        <v>103</v>
       </c>
       <c r="E38" s="29"/>
     </row>
@@ -4661,13 +4657,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="s" s="30">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s" s="31">
         <v>104</v>
-      </c>
-      <c r="C39" t="s" s="30">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s" s="31">
-        <v>105</v>
       </c>
       <c r="E39" s="29"/>
     </row>
@@ -4676,13 +4672,13 @@
         <v>8</v>
       </c>
       <c r="B40" t="s" s="30">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s" s="31">
         <v>106</v>
-      </c>
-      <c r="C40" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D40" t="s" s="31">
-        <v>107</v>
       </c>
       <c r="E40" s="29"/>
     </row>
@@ -4691,13 +4687,13 @@
         <v>8</v>
       </c>
       <c r="B41" t="s" s="30">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s" s="31">
         <v>108</v>
-      </c>
-      <c r="C41" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s" s="31">
-        <v>109</v>
       </c>
       <c r="E41" s="29"/>
     </row>
@@ -4706,13 +4702,13 @@
         <v>8</v>
       </c>
       <c r="B42" t="s" s="30">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s" s="31">
         <v>110</v>
-      </c>
-      <c r="C42" t="s" s="30">
-        <v>62</v>
-      </c>
-      <c r="D42" t="s" s="31">
-        <v>111</v>
       </c>
       <c r="E42" s="29"/>
     </row>
@@ -4721,13 +4717,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="s" s="30">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s" s="31">
         <v>112</v>
-      </c>
-      <c r="C43" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s" s="31">
-        <v>113</v>
       </c>
       <c r="E43" s="29"/>
     </row>
@@ -4736,13 +4732,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="s" s="30">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s" s="31">
         <v>114</v>
-      </c>
-      <c r="C44" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D44" t="s" s="31">
-        <v>115</v>
       </c>
       <c r="E44" s="29"/>
     </row>
@@ -4751,13 +4747,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s" s="30">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s" s="31">
         <v>116</v>
-      </c>
-      <c r="C45" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s" s="31">
-        <v>117</v>
       </c>
       <c r="E45" s="29"/>
     </row>
@@ -4766,13 +4762,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s" s="30">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s" s="30">
         <v>118</v>
       </c>
-      <c r="C46" t="s" s="30">
+      <c r="D46" t="s" s="31">
         <v>119</v>
-      </c>
-      <c r="D46" t="s" s="31">
-        <v>120</v>
       </c>
       <c r="E46" s="29"/>
     </row>
@@ -4781,13 +4777,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="30">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s" s="30">
         <v>121</v>
       </c>
-      <c r="C47" t="s" s="30">
+      <c r="D47" t="s" s="31">
         <v>122</v>
-      </c>
-      <c r="D47" t="s" s="31">
-        <v>123</v>
       </c>
       <c r="E47" s="29"/>
     </row>
@@ -4796,13 +4792,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s" s="30">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s" s="31">
         <v>124</v>
-      </c>
-      <c r="C48" t="s" s="30">
-        <v>62</v>
-      </c>
-      <c r="D48" t="s" s="31">
-        <v>125</v>
       </c>
       <c r="E48" s="29"/>
     </row>
@@ -4811,13 +4807,13 @@
         <v>8</v>
       </c>
       <c r="B49" t="s" s="30">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s" s="31">
         <v>126</v>
-      </c>
-      <c r="C49" t="s" s="30">
-        <v>62</v>
-      </c>
-      <c r="D49" t="s" s="31">
-        <v>127</v>
       </c>
       <c r="E49" s="29"/>
     </row>
@@ -4826,13 +4822,13 @@
         <v>8</v>
       </c>
       <c r="B50" t="s" s="30">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s" s="30">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s" s="31">
         <v>128</v>
-      </c>
-      <c r="C50" t="s" s="30">
-        <v>62</v>
-      </c>
-      <c r="D50" t="s" s="31">
-        <v>129</v>
       </c>
       <c r="E50" s="29"/>
     </row>
@@ -4841,13 +4837,13 @@
         <v>8</v>
       </c>
       <c r="B51" t="s" s="30">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s" s="30">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s" s="31">
         <v>130</v>
-      </c>
-      <c r="C51" t="s" s="30">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s" s="31">
-        <v>131</v>
       </c>
       <c r="E51" s="29"/>
     </row>
@@ -4856,13 +4852,13 @@
         <v>10</v>
       </c>
       <c r="B52" t="s" s="30">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s" s="31">
         <v>132</v>
-      </c>
-      <c r="C52" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D52" t="s" s="31">
-        <v>133</v>
       </c>
       <c r="E52" s="29"/>
     </row>
@@ -4871,13 +4867,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="s" s="30">
+        <v>133</v>
+      </c>
+      <c r="C53" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s" s="31">
         <v>134</v>
-      </c>
-      <c r="C53" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D53" t="s" s="31">
-        <v>135</v>
       </c>
       <c r="E53" s="29"/>
     </row>
@@ -4886,13 +4882,13 @@
         <v>10</v>
       </c>
       <c r="B54" t="s" s="30">
+        <v>135</v>
+      </c>
+      <c r="C54" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s" s="31">
         <v>136</v>
-      </c>
-      <c r="C54" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D54" t="s" s="31">
-        <v>137</v>
       </c>
       <c r="E54" s="29"/>
     </row>
@@ -4901,13 +4897,13 @@
         <v>10</v>
       </c>
       <c r="B55" t="s" s="30">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s" s="31">
         <v>138</v>
-      </c>
-      <c r="C55" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D55" t="s" s="31">
-        <v>139</v>
       </c>
       <c r="E55" s="29"/>
     </row>
@@ -4916,13 +4912,13 @@
         <v>10</v>
       </c>
       <c r="B56" t="s" s="30">
+        <v>139</v>
+      </c>
+      <c r="C56" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s" s="31">
         <v>140</v>
-      </c>
-      <c r="C56" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D56" t="s" s="31">
-        <v>141</v>
       </c>
       <c r="E56" s="29"/>
     </row>
@@ -4931,13 +4927,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s" s="30">
+        <v>141</v>
+      </c>
+      <c r="C57" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s" s="31">
         <v>142</v>
-      </c>
-      <c r="C57" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D57" t="s" s="31">
-        <v>143</v>
       </c>
       <c r="E57" s="29"/>
     </row>
@@ -4946,13 +4942,13 @@
         <v>10</v>
       </c>
       <c r="B58" t="s" s="30">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s" s="31">
         <v>144</v>
-      </c>
-      <c r="C58" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D58" t="s" s="31">
-        <v>145</v>
       </c>
       <c r="E58" s="29"/>
     </row>
@@ -4961,13 +4957,13 @@
         <v>10</v>
       </c>
       <c r="B59" t="s" s="30">
+        <v>145</v>
+      </c>
+      <c r="C59" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s" s="31">
         <v>146</v>
-      </c>
-      <c r="C59" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D59" t="s" s="31">
-        <v>147</v>
       </c>
       <c r="E59" s="29"/>
     </row>
@@ -4976,13 +4972,13 @@
         <v>10</v>
       </c>
       <c r="B60" t="s" s="30">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s" s="31">
         <v>148</v>
-      </c>
-      <c r="C60" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D60" t="s" s="31">
-        <v>149</v>
       </c>
       <c r="E60" s="29"/>
     </row>
@@ -4991,13 +4987,13 @@
         <v>10</v>
       </c>
       <c r="B61" t="s" s="30">
+        <v>149</v>
+      </c>
+      <c r="C61" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s" s="31">
         <v>150</v>
-      </c>
-      <c r="C61" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D61" t="s" s="31">
-        <v>151</v>
       </c>
       <c r="E61" s="29"/>
     </row>
@@ -5006,13 +5002,13 @@
         <v>10</v>
       </c>
       <c r="B62" t="s" s="30">
+        <v>151</v>
+      </c>
+      <c r="C62" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s" s="31">
         <v>152</v>
-      </c>
-      <c r="C62" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D62" t="s" s="31">
-        <v>153</v>
       </c>
       <c r="E62" s="29"/>
     </row>
@@ -5021,13 +5017,13 @@
         <v>10</v>
       </c>
       <c r="B63" t="s" s="30">
+        <v>153</v>
+      </c>
+      <c r="C63" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s" s="31">
         <v>154</v>
-      </c>
-      <c r="C63" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D63" t="s" s="31">
-        <v>155</v>
       </c>
       <c r="E63" s="29"/>
     </row>
@@ -5036,13 +5032,13 @@
         <v>10</v>
       </c>
       <c r="B64" t="s" s="30">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s" s="31">
         <v>156</v>
-      </c>
-      <c r="C64" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D64" t="s" s="31">
-        <v>157</v>
       </c>
       <c r="E64" s="29"/>
     </row>
@@ -5051,13 +5047,13 @@
         <v>10</v>
       </c>
       <c r="B65" t="s" s="30">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s" s="31">
         <v>158</v>
-      </c>
-      <c r="C65" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D65" t="s" s="31">
-        <v>159</v>
       </c>
       <c r="E65" s="29"/>
     </row>
@@ -5066,13 +5062,13 @@
         <v>10</v>
       </c>
       <c r="B66" t="s" s="30">
+        <v>159</v>
+      </c>
+      <c r="C66" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s" s="31">
         <v>160</v>
-      </c>
-      <c r="C66" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D66" t="s" s="31">
-        <v>161</v>
       </c>
       <c r="E66" s="29"/>
     </row>
@@ -5081,13 +5077,13 @@
         <v>12</v>
       </c>
       <c r="B67" t="s" s="30">
+        <v>161</v>
+      </c>
+      <c r="C67" t="s" s="30">
         <v>162</v>
       </c>
-      <c r="C67" t="s" s="30">
+      <c r="D67" t="s" s="31">
         <v>163</v>
-      </c>
-      <c r="D67" t="s" s="31">
-        <v>164</v>
       </c>
       <c r="E67" s="29"/>
     </row>
@@ -5096,13 +5092,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s" s="30">
+        <v>164</v>
+      </c>
+      <c r="C68" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s" s="31">
         <v>165</v>
-      </c>
-      <c r="C68" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D68" t="s" s="31">
-        <v>166</v>
       </c>
       <c r="E68" s="29"/>
     </row>
@@ -5111,13 +5107,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s" s="30">
+        <v>166</v>
+      </c>
+      <c r="C69" t="s" s="30">
+        <v>162</v>
+      </c>
+      <c r="D69" t="s" s="31">
         <v>167</v>
-      </c>
-      <c r="C69" t="s" s="30">
-        <v>163</v>
-      </c>
-      <c r="D69" t="s" s="31">
-        <v>168</v>
       </c>
       <c r="E69" s="29"/>
     </row>
@@ -5126,13 +5122,13 @@
         <v>12</v>
       </c>
       <c r="B70" t="s" s="30">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s" s="31">
         <v>169</v>
-      </c>
-      <c r="C70" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D70" t="s" s="31">
-        <v>170</v>
       </c>
       <c r="E70" s="29"/>
     </row>
@@ -5141,13 +5137,13 @@
         <v>12</v>
       </c>
       <c r="B71" t="s" s="30">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s" s="30">
+        <v>162</v>
+      </c>
+      <c r="D71" t="s" s="31">
         <v>171</v>
-      </c>
-      <c r="C71" t="s" s="30">
-        <v>163</v>
-      </c>
-      <c r="D71" t="s" s="31">
-        <v>172</v>
       </c>
       <c r="E71" s="29"/>
     </row>
@@ -5156,13 +5152,13 @@
         <v>12</v>
       </c>
       <c r="B72" t="s" s="30">
+        <v>172</v>
+      </c>
+      <c r="C72" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s" s="31">
         <v>173</v>
-      </c>
-      <c r="C72" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D72" t="s" s="31">
-        <v>174</v>
       </c>
       <c r="E72" s="29"/>
     </row>
@@ -5171,13 +5167,13 @@
         <v>12</v>
       </c>
       <c r="B73" t="s" s="30">
+        <v>174</v>
+      </c>
+      <c r="C73" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s" s="31">
         <v>175</v>
-      </c>
-      <c r="C73" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D73" t="s" s="31">
-        <v>176</v>
       </c>
       <c r="E73" s="29"/>
     </row>
@@ -5186,13 +5182,13 @@
         <v>12</v>
       </c>
       <c r="B74" t="s" s="30">
+        <v>176</v>
+      </c>
+      <c r="C74" t="s" s="30">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s" s="31">
         <v>177</v>
-      </c>
-      <c r="C74" t="s" s="30">
-        <v>163</v>
-      </c>
-      <c r="D74" t="s" s="31">
-        <v>178</v>
       </c>
       <c r="E74" s="29"/>
     </row>
@@ -5201,13 +5197,13 @@
         <v>12</v>
       </c>
       <c r="B75" t="s" s="30">
+        <v>178</v>
+      </c>
+      <c r="C75" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D75" t="s" s="31">
         <v>179</v>
-      </c>
-      <c r="C75" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D75" t="s" s="31">
-        <v>180</v>
       </c>
       <c r="E75" s="29"/>
     </row>
@@ -5216,13 +5212,13 @@
         <v>12</v>
       </c>
       <c r="B76" t="s" s="30">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D76" t="s" s="31">
         <v>181</v>
-      </c>
-      <c r="C76" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D76" t="s" s="31">
-        <v>182</v>
       </c>
       <c r="E76" s="29"/>
     </row>
@@ -5231,13 +5227,13 @@
         <v>12</v>
       </c>
       <c r="B77" t="s" s="30">
+        <v>182</v>
+      </c>
+      <c r="C77" t="s" s="30">
+        <v>162</v>
+      </c>
+      <c r="D77" t="s" s="31">
         <v>183</v>
-      </c>
-      <c r="C77" t="s" s="30">
-        <v>163</v>
-      </c>
-      <c r="D77" t="s" s="31">
-        <v>184</v>
       </c>
       <c r="E77" s="29"/>
     </row>
@@ -5246,13 +5242,13 @@
         <v>12</v>
       </c>
       <c r="B78" t="s" s="30">
+        <v>184</v>
+      </c>
+      <c r="C78" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D78" t="s" s="31">
         <v>185</v>
-      </c>
-      <c r="C78" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D78" t="s" s="31">
-        <v>186</v>
       </c>
       <c r="E78" s="29"/>
     </row>
@@ -5261,13 +5257,13 @@
         <v>12</v>
       </c>
       <c r="B79" t="s" s="30">
+        <v>186</v>
+      </c>
+      <c r="C79" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D79" t="s" s="31">
         <v>187</v>
-      </c>
-      <c r="C79" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D79" t="s" s="31">
-        <v>188</v>
       </c>
       <c r="E79" s="29"/>
     </row>
@@ -5276,13 +5272,13 @@
         <v>12</v>
       </c>
       <c r="B80" t="s" s="30">
+        <v>188</v>
+      </c>
+      <c r="C80" t="s" s="30">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s" s="31">
         <v>189</v>
-      </c>
-      <c r="C80" t="s" s="30">
-        <v>163</v>
-      </c>
-      <c r="D80" t="s" s="31">
-        <v>190</v>
       </c>
       <c r="E80" s="29"/>
     </row>
@@ -5291,13 +5287,13 @@
         <v>12</v>
       </c>
       <c r="B81" t="s" s="30">
+        <v>190</v>
+      </c>
+      <c r="C81" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D81" t="s" s="31">
         <v>191</v>
-      </c>
-      <c r="C81" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D81" t="s" s="31">
-        <v>192</v>
       </c>
       <c r="E81" s="29"/>
     </row>
@@ -5306,13 +5302,13 @@
         <v>12</v>
       </c>
       <c r="B82" t="s" s="30">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s" s="31">
         <v>193</v>
-      </c>
-      <c r="C82" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D82" t="s" s="31">
-        <v>194</v>
       </c>
       <c r="E82" s="29"/>
     </row>
@@ -5321,13 +5317,13 @@
         <v>12</v>
       </c>
       <c r="B83" t="s" s="30">
+        <v>194</v>
+      </c>
+      <c r="C83" t="s" s="30">
+        <v>162</v>
+      </c>
+      <c r="D83" t="s" s="31">
         <v>195</v>
-      </c>
-      <c r="C83" t="s" s="30">
-        <v>163</v>
-      </c>
-      <c r="D83" t="s" s="31">
-        <v>196</v>
       </c>
       <c r="E83" s="29"/>
     </row>
@@ -5336,13 +5332,13 @@
         <v>12</v>
       </c>
       <c r="B84" t="s" s="30">
+        <v>196</v>
+      </c>
+      <c r="C84" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s" s="31">
         <v>197</v>
-      </c>
-      <c r="C84" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D84" t="s" s="31">
-        <v>198</v>
       </c>
       <c r="E84" s="29"/>
     </row>
@@ -5351,13 +5347,13 @@
         <v>12</v>
       </c>
       <c r="B85" t="s" s="30">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s" s="30">
+        <v>162</v>
+      </c>
+      <c r="D85" t="s" s="31">
         <v>199</v>
-      </c>
-      <c r="C85" t="s" s="30">
-        <v>163</v>
-      </c>
-      <c r="D85" t="s" s="31">
-        <v>200</v>
       </c>
       <c r="E85" s="29"/>
     </row>
@@ -5366,13 +5362,13 @@
         <v>12</v>
       </c>
       <c r="B86" t="s" s="30">
+        <v>200</v>
+      </c>
+      <c r="C86" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D86" t="s" s="31">
         <v>201</v>
-      </c>
-      <c r="C86" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D86" t="s" s="31">
-        <v>202</v>
       </c>
       <c r="E86" s="29"/>
     </row>
@@ -5381,13 +5377,13 @@
         <v>12</v>
       </c>
       <c r="B87" t="s" s="30">
+        <v>202</v>
+      </c>
+      <c r="C87" t="s" s="30">
+        <v>162</v>
+      </c>
+      <c r="D87" t="s" s="31">
         <v>203</v>
-      </c>
-      <c r="C87" t="s" s="30">
-        <v>163</v>
-      </c>
-      <c r="D87" t="s" s="31">
-        <v>204</v>
       </c>
       <c r="E87" s="29"/>
     </row>
@@ -5396,13 +5392,13 @@
         <v>12</v>
       </c>
       <c r="B88" t="s" s="30">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s" s="31">
         <v>205</v>
-      </c>
-      <c r="C88" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D88" t="s" s="31">
-        <v>206</v>
       </c>
       <c r="E88" s="29"/>
     </row>
@@ -5411,13 +5407,13 @@
         <v>12</v>
       </c>
       <c r="B89" t="s" s="30">
+        <v>206</v>
+      </c>
+      <c r="C89" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s" s="31">
         <v>207</v>
-      </c>
-      <c r="C89" t="s" s="30">
-        <v>29</v>
-      </c>
-      <c r="D89" t="s" s="31">
-        <v>208</v>
       </c>
       <c r="E89" s="29"/>
     </row>
@@ -5465,159 +5461,159 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s" s="33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s" s="33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s" s="33">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s" s="33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s" s="33">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s" s="33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="33">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="33">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="33">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s" s="34">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s" s="34">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P1" t="s" s="34">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q1" t="s" s="34">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R1" t="s" s="34">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S1" t="s" s="34">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T1" t="s" s="34">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U1" t="s" s="35">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s" s="35">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W1" t="s" s="35">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s" s="35">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s" s="35">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z1" t="s" s="35">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA1" t="s" s="35">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s" s="35">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC1" t="s" s="36">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD1" t="s" s="36">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE1" t="s" s="36">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF1" t="s" s="36">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG1" t="s" s="36">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH1" t="s" s="36">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI1" t="s" s="36">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ1" t="s" s="36">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK1" t="s" s="37">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL1" t="s" s="37">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AM1" t="s" s="37">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN1" t="s" s="37">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AO1" t="s" s="37">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AP1" t="s" s="37">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AQ1" t="s" s="37">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AR1" t="s" s="37">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AS1" t="s" s="38">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT1" t="s" s="38">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AU1" t="s" s="38">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AV1" t="s" s="38">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AW1" t="s" s="38">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AX1" t="s" s="38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="30">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="39">
         <v>1500</v>
@@ -5653,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s" s="40">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M2" s="41">
         <v>0.63</v>
@@ -5678,7 +5674,7 @@
         <v>1.2</v>
       </c>
       <c r="T2" t="s" s="42">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U2" s="39">
         <v>0.0975</v>
@@ -5703,7 +5699,7 @@
         <v>1.2</v>
       </c>
       <c r="AB2" t="s" s="42">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC2" s="39">
         <v>0.052</v>
@@ -5728,7 +5724,7 @@
         <v>1.2</v>
       </c>
       <c r="AJ2" t="s" s="42">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK2" s="39">
         <v>0</v>
@@ -5752,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="AR2" t="s" s="42">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AS2" s="39">
         <v>0</v>
@@ -5775,7 +5771,7 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="30">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="39">
         <v>1500</v>
@@ -5811,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s" s="43">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M3" s="41">
         <v>16.17</v>
@@ -5836,7 +5832,7 @@
         <v>1.3</v>
       </c>
       <c r="T3" t="s" s="43">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U3" s="41">
         <v>3.74</v>
@@ -5862,7 +5858,7 @@
         <v>1.3</v>
       </c>
       <c r="AB3" t="s" s="43">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC3" s="44">
         <v>1.81</v>
@@ -5888,7 +5884,7 @@
         <v>1.1</v>
       </c>
       <c r="AJ3" t="s" s="43">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK3" s="41">
         <v>0</v>
@@ -5912,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="AR3" t="s" s="43">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AS3" s="41">
         <v>0</v>
@@ -5934,12 +5930,8 @@
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>213</v>
-      </c>
-      <c r="B4" s="39">
-        <v>1500</v>
-      </c>
+      <c r="A4" s="30"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -6336,504 +6328,499 @@
   <sheetData>
     <row r="1" ht="14.05" customHeight="1">
       <c r="A1" t="s" s="50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s" s="50">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s" s="50">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s" s="50">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s" s="51">
+        <v>212</v>
+      </c>
+      <c r="F1" t="s" s="51">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s" s="51">
         <v>214</v>
       </c>
-      <c r="F1" t="s" s="51">
+      <c r="H1" t="s" s="51">
         <v>215</v>
       </c>
-      <c r="G1" t="s" s="51">
+      <c r="I1" t="s" s="51">
         <v>216</v>
       </c>
-      <c r="H1" t="s" s="51">
+      <c r="J1" t="s" s="51">
         <v>217</v>
       </c>
-      <c r="I1" t="s" s="51">
+      <c r="K1" t="s" s="51">
         <v>218</v>
       </c>
-      <c r="J1" t="s" s="51">
+      <c r="L1" t="s" s="51">
         <v>219</v>
       </c>
-      <c r="K1" t="s" s="51">
+      <c r="M1" t="s" s="51">
         <v>220</v>
       </c>
-      <c r="L1" t="s" s="51">
+      <c r="N1" t="s" s="51">
         <v>221</v>
       </c>
-      <c r="M1" t="s" s="51">
+      <c r="O1" t="s" s="51">
         <v>222</v>
       </c>
-      <c r="N1" t="s" s="51">
+      <c r="P1" t="s" s="51">
         <v>223</v>
       </c>
-      <c r="O1" t="s" s="51">
+      <c r="Q1" t="s" s="51">
         <v>224</v>
       </c>
-      <c r="P1" t="s" s="51">
+      <c r="R1" t="s" s="51">
         <v>225</v>
       </c>
-      <c r="Q1" t="s" s="51">
+      <c r="S1" t="s" s="51">
         <v>226</v>
       </c>
-      <c r="R1" t="s" s="51">
+      <c r="T1" t="s" s="51">
         <v>227</v>
       </c>
-      <c r="S1" t="s" s="51">
+      <c r="U1" t="s" s="51">
         <v>228</v>
       </c>
-      <c r="T1" t="s" s="51">
+      <c r="V1" t="s" s="51">
         <v>229</v>
       </c>
-      <c r="U1" t="s" s="51">
+      <c r="W1" t="s" s="50">
         <v>230</v>
       </c>
-      <c r="V1" t="s" s="51">
+      <c r="X1" t="s" s="51">
         <v>231</v>
       </c>
-      <c r="W1" t="s" s="50">
+      <c r="Y1" t="s" s="51">
         <v>232</v>
       </c>
-      <c r="X1" t="s" s="51">
+      <c r="Z1" t="s" s="51">
         <v>233</v>
       </c>
-      <c r="Y1" t="s" s="51">
+      <c r="AA1" t="s" s="51">
         <v>234</v>
       </c>
-      <c r="Z1" t="s" s="51">
+      <c r="AB1" t="s" s="51">
         <v>235</v>
       </c>
-      <c r="AA1" t="s" s="51">
+      <c r="AC1" t="s" s="51">
         <v>236</v>
       </c>
-      <c r="AB1" t="s" s="51">
+      <c r="AD1" t="s" s="51">
         <v>237</v>
       </c>
-      <c r="AC1" t="s" s="51">
+      <c r="AE1" t="s" s="51">
         <v>238</v>
       </c>
-      <c r="AD1" t="s" s="51">
+      <c r="AF1" t="s" s="51">
         <v>239</v>
       </c>
-      <c r="AE1" t="s" s="51">
+      <c r="AG1" t="s" s="51">
         <v>240</v>
       </c>
-      <c r="AF1" t="s" s="51">
+      <c r="AH1" t="s" s="51">
         <v>241</v>
       </c>
-      <c r="AG1" t="s" s="51">
+      <c r="AI1" t="s" s="51">
         <v>242</v>
       </c>
-      <c r="AH1" t="s" s="51">
+      <c r="AJ1" t="s" s="51">
         <v>243</v>
       </c>
-      <c r="AI1" t="s" s="51">
+      <c r="AK1" t="s" s="51">
         <v>244</v>
       </c>
-      <c r="AJ1" t="s" s="51">
+      <c r="AL1" t="s" s="51">
         <v>245</v>
       </c>
-      <c r="AK1" t="s" s="51">
+      <c r="AM1" t="s" s="51">
         <v>246</v>
       </c>
-      <c r="AL1" t="s" s="51">
+      <c r="AN1" t="s" s="51">
         <v>247</v>
       </c>
-      <c r="AM1" t="s" s="51">
+      <c r="AO1" t="s" s="51">
         <v>248</v>
       </c>
-      <c r="AN1" t="s" s="51">
+      <c r="AP1" t="s" s="50">
+        <v>141</v>
+      </c>
+      <c r="AQ1" t="s" s="50">
+        <v>143</v>
+      </c>
+      <c r="AR1" t="s" s="50">
+        <v>145</v>
+      </c>
+      <c r="AS1" t="s" s="50">
+        <v>147</v>
+      </c>
+      <c r="AT1" t="s" s="50">
+        <v>149</v>
+      </c>
+      <c r="AU1" t="s" s="50">
+        <v>151</v>
+      </c>
+      <c r="AV1" t="s" s="50">
+        <v>153</v>
+      </c>
+      <c r="AW1" t="s" s="50">
+        <v>155</v>
+      </c>
+      <c r="AX1" t="s" s="50">
+        <v>157</v>
+      </c>
+      <c r="AY1" t="s" s="50">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" ht="14.55" customHeight="1">
+      <c r="A2" t="s" s="52">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s" s="52">
         <v>249</v>
       </c>
-      <c r="AO1" t="s" s="51">
-        <v>250</v>
-      </c>
-      <c r="AP1" t="s" s="50">
-        <v>142</v>
-      </c>
-      <c r="AQ1" t="s" s="50">
-        <v>144</v>
-      </c>
-      <c r="AR1" t="s" s="50">
-        <v>146</v>
-      </c>
-      <c r="AS1" t="s" s="50">
-        <v>148</v>
-      </c>
-      <c r="AT1" t="s" s="50">
-        <v>150</v>
-      </c>
-      <c r="AU1" t="s" s="50">
-        <v>152</v>
-      </c>
-      <c r="AV1" t="s" s="50">
-        <v>154</v>
-      </c>
-      <c r="AW1" t="s" s="50">
-        <v>156</v>
-      </c>
-      <c r="AX1" t="s" s="50">
-        <v>158</v>
-      </c>
-      <c r="AY1" t="s" s="50">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" ht="14.55" customHeight="1">
-      <c r="A2" t="str" s="52" cm="1">
-        <f t="array" ref="A2">'Airfoil_Data'!A2</f>
-        <v>Config1</v>
-      </c>
-      <c r="B2" t="s" s="53">
-        <v>251</v>
-      </c>
-      <c r="C2" s="54">
+      <c r="C2" s="53">
         <v>0.08699999999999999</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="54">
         <v>0.302</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="55">
         <v>-0.32438</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="55">
         <v>-0.21503</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="55">
         <v>-0.10081</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="55">
         <v>0.010503</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="55">
         <v>0.12155</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="55">
         <v>0.24163</v>
       </c>
-      <c r="K2" s="56">
+      <c r="K2" s="55">
         <v>0.34336</v>
       </c>
-      <c r="L2" s="56">
+      <c r="L2" s="55">
         <v>0.45256</v>
       </c>
-      <c r="M2" s="56">
+      <c r="M2" s="55">
         <v>0.56037</v>
       </c>
-      <c r="N2" s="56">
+      <c r="N2" s="55">
         <v>0.66625</v>
       </c>
-      <c r="O2" s="56">
+      <c r="O2" s="55">
         <v>0.76942</v>
       </c>
-      <c r="P2" s="56">
+      <c r="P2" s="55">
         <v>0.8692299999999999</v>
       </c>
-      <c r="Q2" s="56">
+      <c r="Q2" s="55">
         <v>0.9638600000000001</v>
       </c>
-      <c r="R2" s="56">
+      <c r="R2" s="55">
         <v>1.0441</v>
       </c>
-      <c r="S2" s="56">
+      <c r="S2" s="55">
         <v>1.0743</v>
       </c>
-      <c r="T2" s="56">
+      <c r="T2" s="55">
         <v>1.0807</v>
       </c>
-      <c r="U2" s="56">
+      <c r="U2" s="55">
         <v>1.0379</v>
       </c>
-      <c r="V2" s="56">
+      <c r="V2" s="55">
         <v>1.034</v>
       </c>
-      <c r="W2" s="57" cm="1">
+      <c r="W2" s="56" cm="1">
         <f t="array" ref="W2">MAX(E2:V2)</f>
         <v>1.0807</v>
       </c>
-      <c r="X2" s="56">
+      <c r="X2" s="55">
         <v>0.044251</v>
       </c>
-      <c r="Y2" s="56">
+      <c r="Y2" s="55">
         <v>0.033783</v>
       </c>
-      <c r="Z2" s="56">
+      <c r="Z2" s="55">
         <v>0.028627</v>
       </c>
-      <c r="AA2" s="56">
+      <c r="AA2" s="55">
         <v>0.025864</v>
       </c>
-      <c r="AB2" s="56">
+      <c r="AB2" s="55">
         <v>0.024643</v>
       </c>
-      <c r="AC2" s="56">
+      <c r="AC2" s="55">
         <v>0.025099</v>
       </c>
-      <c r="AD2" s="56">
+      <c r="AD2" s="55">
         <v>0.025635</v>
       </c>
-      <c r="AE2" s="56">
+      <c r="AE2" s="55">
         <v>0.02766</v>
       </c>
-      <c r="AF2" s="56">
+      <c r="AF2" s="55">
         <v>0.030677</v>
       </c>
-      <c r="AG2" s="56">
+      <c r="AG2" s="55">
         <v>0.034855</v>
       </c>
-      <c r="AH2" s="56">
+      <c r="AH2" s="55">
         <v>0.040403</v>
       </c>
-      <c r="AI2" s="56">
+      <c r="AI2" s="55">
         <v>0.04759</v>
       </c>
-      <c r="AJ2" s="56">
+      <c r="AJ2" s="55">
         <v>0.057108</v>
       </c>
-      <c r="AK2" s="56">
+      <c r="AK2" s="55">
         <v>0.070132</v>
       </c>
-      <c r="AL2" s="56">
+      <c r="AL2" s="55">
         <v>0.090921</v>
       </c>
-      <c r="AM2" s="56">
+      <c r="AM2" s="55">
         <v>0.11193</v>
       </c>
-      <c r="AN2" s="56">
+      <c r="AN2" s="55">
         <v>0.13254</v>
       </c>
-      <c r="AO2" s="56">
+      <c r="AO2" s="55">
         <v>0.15645</v>
       </c>
-      <c r="AP2" s="58" cm="1">
+      <c r="AP2" s="57" cm="1">
         <f t="array" ref="AP2">MIN(X2:AO2)</f>
         <v>0.024643</v>
       </c>
-      <c r="AQ2" t="s" s="53">
-        <v>252</v>
-      </c>
-      <c r="AR2" s="54">
+      <c r="AQ2" t="s" s="52">
+        <v>250</v>
+      </c>
+      <c r="AR2" s="53">
         <v>0.08699999999999999</v>
       </c>
-      <c r="AS2" s="54">
+      <c r="AS2" s="53">
         <v>0.302</v>
       </c>
-      <c r="AT2" t="s" s="53">
+      <c r="AT2" t="s" s="52">
+        <v>249</v>
+      </c>
+      <c r="AU2" s="53">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="AV2" s="53">
+        <v>0.302</v>
+      </c>
+      <c r="AW2" s="53">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="14.05" customHeight="1">
+      <c r="A3" t="s" s="52">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s" s="52">
         <v>251</v>
       </c>
-      <c r="AU2" s="54">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="AV2" s="54">
-        <v>0.302</v>
-      </c>
-      <c r="AW2" s="54">
+      <c r="C3" s="53">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="58">
+        <v>-0.3</v>
+      </c>
+      <c r="F3" s="58">
+        <v>-0.2</v>
+      </c>
+      <c r="G3" s="58">
+        <v>-0.1</v>
+      </c>
+      <c r="H3" s="58">
         <v>0</v>
       </c>
-      <c r="AX2" s="54">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.05" customHeight="1">
-      <c r="A3" t="s" s="53">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s" s="53">
-        <v>253</v>
-      </c>
-      <c r="C3" s="54">
-        <v>0.12</v>
-      </c>
-      <c r="D3" s="54">
+      <c r="I3" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="58">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="58">
         <v>0.3</v>
       </c>
-      <c r="E3" s="59">
-        <v>-0.3</v>
-      </c>
-      <c r="F3" s="59">
-        <v>-0.2</v>
-      </c>
-      <c r="G3" s="59">
-        <v>-0.1</v>
-      </c>
-      <c r="H3" s="59">
-        <v>0</v>
-      </c>
-      <c r="I3" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="J3" s="59">
-        <v>0.2</v>
-      </c>
-      <c r="K3" s="59">
-        <v>0.3</v>
-      </c>
-      <c r="L3" s="59">
+      <c r="L3" s="58">
         <v>0.4</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="58">
         <v>0.4</v>
       </c>
-      <c r="N3" s="59">
+      <c r="N3" s="58">
         <v>0.5</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="58">
         <v>0.6</v>
       </c>
-      <c r="P3" s="59">
+      <c r="P3" s="58">
         <v>0.7</v>
       </c>
-      <c r="Q3" s="59">
+      <c r="Q3" s="58">
         <v>0.8</v>
       </c>
-      <c r="R3" s="59">
+      <c r="R3" s="58">
         <v>0.9</v>
       </c>
-      <c r="S3" s="59">
+      <c r="S3" s="58">
         <v>1</v>
       </c>
-      <c r="T3" s="59">
+      <c r="T3" s="58">
         <v>1.1</v>
       </c>
-      <c r="U3" s="59">
+      <c r="U3" s="58">
         <v>1.2</v>
       </c>
-      <c r="V3" s="59">
+      <c r="V3" s="58">
         <v>1.3</v>
       </c>
-      <c r="W3" s="54">
+      <c r="W3" s="53">
         <v>1.3</v>
       </c>
-      <c r="X3" s="60" cm="1">
+      <c r="X3" s="59" cm="1">
         <f t="array" ref="X3">0.033686+(0.035*(-0.3^2))+(-0.0098*-0.3)</f>
         <v>0.039776</v>
       </c>
-      <c r="Y3" s="60" cm="1">
+      <c r="Y3" s="59" cm="1">
         <f t="array" ref="Y3">0.033686+(0.035*(-0.2^2))+(-0.0098*-0.2)</f>
         <v>0.037046</v>
       </c>
-      <c r="Z3" s="60" cm="1">
+      <c r="Z3" s="59" cm="1">
         <f t="array" ref="Z3">0.033686+(0.035*(-0.2^2))+(-0.0098*-0.2)</f>
         <v>0.037046</v>
       </c>
-      <c r="AA3" s="60">
+      <c r="AA3" s="59">
         <v>0.033686</v>
       </c>
-      <c r="AB3" s="60">
+      <c r="AB3" s="59">
         <v>0.033056</v>
       </c>
-      <c r="AC3" s="60">
+      <c r="AC3" s="59">
         <v>0.033126</v>
       </c>
-      <c r="AD3" s="60">
+      <c r="AD3" s="59">
         <v>0.033126</v>
       </c>
-      <c r="AE3" s="60">
+      <c r="AE3" s="59">
         <v>0.035366</v>
       </c>
-      <c r="AF3" s="60">
+      <c r="AF3" s="59">
         <v>0.037536</v>
       </c>
-      <c r="AG3" s="60">
+      <c r="AG3" s="59">
         <v>0.040406</v>
       </c>
-      <c r="AH3" s="60">
+      <c r="AH3" s="59">
         <v>0.043976</v>
       </c>
-      <c r="AI3" s="60">
+      <c r="AI3" s="59">
         <v>0.048246</v>
       </c>
-      <c r="AJ3" s="60">
+      <c r="AJ3" s="59">
         <v>0.053216</v>
       </c>
-      <c r="AK3" s="60">
+      <c r="AK3" s="59">
         <v>0.058886</v>
       </c>
-      <c r="AL3" s="60">
+      <c r="AL3" s="59">
         <v>0.06525599999999999</v>
       </c>
-      <c r="AM3" s="60">
+      <c r="AM3" s="59">
         <v>0.072326</v>
       </c>
-      <c r="AN3" s="60">
+      <c r="AN3" s="59">
         <v>0.080096</v>
       </c>
-      <c r="AO3" s="61">
+      <c r="AO3" s="60">
         <v>0.08856600000000001</v>
       </c>
-      <c r="AP3" s="58" cm="1">
+      <c r="AP3" s="57" cm="1">
         <f t="array" ref="AP3">MIN(X3:AO3)</f>
         <v>0.033056</v>
       </c>
-      <c r="AQ3" t="s" s="53">
-        <v>253</v>
-      </c>
-      <c r="AR3" s="54">
+      <c r="AQ3" t="s" s="52">
+        <v>251</v>
+      </c>
+      <c r="AR3" s="53">
         <v>0.12</v>
       </c>
-      <c r="AS3" s="54">
+      <c r="AS3" s="53">
         <v>0.3</v>
       </c>
-      <c r="AT3" t="s" s="53">
-        <v>253</v>
-      </c>
-      <c r="AU3" s="54">
+      <c r="AT3" t="s" s="52">
+        <v>251</v>
+      </c>
+      <c r="AU3" s="53">
         <v>0.12</v>
       </c>
-      <c r="AV3" s="54">
+      <c r="AV3" s="53">
         <v>0.3</v>
       </c>
-      <c r="AW3" s="54">
+      <c r="AW3" s="53">
         <v>0</v>
       </c>
-      <c r="AX3" s="54">
+      <c r="AX3" s="53">
         <v>0</v>
       </c>
-      <c r="AY3" s="54">
+      <c r="AY3" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="53">
-        <v>213</v>
-      </c>
-      <c r="B4" t="s" s="53">
-        <v>254</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
       <c r="X4" s="62"/>
       <c r="Y4" s="62"/>
       <c r="Z4" s="62"/>
@@ -6852,334 +6839,334 @@
       <c r="AM4" s="62"/>
       <c r="AN4" s="62"/>
       <c r="AO4" s="62"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="61"/>
+      <c r="AY4" s="61"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="52"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="61"/>
+      <c r="AW6" s="61"/>
+      <c r="AX6" s="61"/>
+      <c r="AY6" s="61"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="52"/>
-      <c r="AP7" s="52"/>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="52"/>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="52"/>
-      <c r="AU7" s="52"/>
-      <c r="AV7" s="52"/>
-      <c r="AW7" s="52"/>
-      <c r="AX7" s="52"/>
-      <c r="AY7" s="52"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="52"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
-      <c r="AT8" s="52"/>
-      <c r="AU8" s="52"/>
-      <c r="AV8" s="52"/>
-      <c r="AW8" s="52"/>
-      <c r="AX8" s="52"/>
-      <c r="AY8" s="52"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="61"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="61"/>
+      <c r="AJ8" s="61"/>
+      <c r="AK8" s="61"/>
+      <c r="AL8" s="61"/>
+      <c r="AM8" s="61"/>
+      <c r="AN8" s="61"/>
+      <c r="AO8" s="61"/>
+      <c r="AP8" s="61"/>
+      <c r="AQ8" s="61"/>
+      <c r="AR8" s="61"/>
+      <c r="AS8" s="61"/>
+      <c r="AT8" s="61"/>
+      <c r="AU8" s="61"/>
+      <c r="AV8" s="61"/>
+      <c r="AW8" s="61"/>
+      <c r="AX8" s="61"/>
+      <c r="AY8" s="61"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="52"/>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="52"/>
-      <c r="AU9" s="52"/>
-      <c r="AV9" s="52"/>
-      <c r="AW9" s="52"/>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="52"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="61"/>
+      <c r="AY9" s="61"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="52"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="52"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="52"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7210,81 +7197,81 @@
   <sheetData>
     <row r="1" ht="14.4" customHeight="1">
       <c r="A1" t="s" s="64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s" s="64">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s" s="64">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s" s="64">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s" s="64">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s" s="64">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1" t="s" s="65">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s" s="64">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I1" t="s" s="64">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J1" t="s" s="65">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s" s="64">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L1" t="s" s="64">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M1" t="s" s="65">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N1" t="s" s="64">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O1" t="s" s="64">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P1" t="s" s="65">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q1" t="s" s="64">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R1" t="s" s="64">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S1" t="s" s="64">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T1" t="s" s="64">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U1" t="s" s="64">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V1" t="s" s="64">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W1" t="s" s="64">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X1" t="s" s="64">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" ht="14.4" customHeight="1">
       <c r="A2" t="str" s="45" cm="1">
-        <f t="array" ref="A2">'Airfoil_Data'!A2</f>
+        <f t="array" ref="A2">'Component_Data'!A2</f>
         <v>Config1</v>
       </c>
       <c r="B2" s="39">
@@ -8789,28 +8776,28 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="26">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s" s="26">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>253</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>254</v>
+      </c>
+      <c r="E1" t="s" s="26">
         <v>255</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="F1" t="s" s="72">
+        <v>211</v>
+      </c>
+      <c r="G1" t="s" s="72">
         <v>256</v>
       </c>
-      <c r="D1" t="s" s="26">
+      <c r="H1" t="s" s="73">
         <v>257</v>
-      </c>
-      <c r="E1" t="s" s="26">
-        <v>258</v>
-      </c>
-      <c r="F1" t="s" s="72">
-        <v>212</v>
-      </c>
-      <c r="G1" t="s" s="72">
-        <v>259</v>
-      </c>
-      <c r="H1" t="s" s="73">
-        <v>260</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
@@ -8841,28 +8828,28 @@
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="76">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s" s="76">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s" s="76">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s" s="76">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s" s="76">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s" s="76">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s" s="76">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H3" t="s" s="76">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -8960,13 +8947,13 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="79">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s" s="80">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s" s="80">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D1" s="81"/>
       <c r="E1" s="70"/>
@@ -8990,13 +8977,13 @@
       <c r="W1" s="70"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="56">
+      <c r="A2" s="55">
         <v>-5</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="55">
         <v>-0.32438</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="55">
         <v>0.044251</v>
       </c>
       <c r="D2" s="81"/>
@@ -9021,13 +9008,13 @@
       <c r="W2" s="70"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="56">
+      <c r="A3" s="55">
         <v>-4</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="55">
         <v>-0.21503</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="55">
         <v>0.033783</v>
       </c>
       <c r="D3" s="81"/>
@@ -9052,13 +9039,13 @@
       <c r="W3" s="70"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="56">
+      <c r="A4" s="55">
         <v>-3</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="55">
         <v>-0.10081</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="55">
         <v>0.028627</v>
       </c>
       <c r="D4" s="81"/>
@@ -9083,13 +9070,13 @@
       <c r="W4" s="70"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="56">
+      <c r="A5" s="55">
         <v>-2</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="55">
         <v>0.010503</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="55">
         <v>0.025864</v>
       </c>
       <c r="D5" s="81"/>
@@ -9114,13 +9101,13 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="56">
+      <c r="A6" s="55">
         <v>-1</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="55">
         <v>0.12155</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="55">
         <v>0.024643</v>
       </c>
       <c r="D6" s="81"/>
@@ -9145,13 +9132,13 @@
       <c r="W6" s="70"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <v>0</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="55">
         <v>0.24163</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="55">
         <v>0.025099</v>
       </c>
       <c r="D7" s="81"/>
@@ -9176,13 +9163,13 @@
       <c r="W7" s="70"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="56">
+      <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="55">
         <v>0.34336</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="55">
         <v>0.025635</v>
       </c>
       <c r="D8" s="81"/>
@@ -9207,13 +9194,13 @@
       <c r="W8" s="70"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="56">
+      <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="55">
         <v>0.45256</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="55">
         <v>0.02766</v>
       </c>
       <c r="D9" s="81"/>
@@ -9238,13 +9225,13 @@
       <c r="W9" s="70"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="55">
         <v>0.56037</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="55">
         <v>0.030677</v>
       </c>
       <c r="D10" s="81"/>
@@ -9269,13 +9256,13 @@
       <c r="W10" s="70"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="56">
+      <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="55">
         <v>0.66625</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="55">
         <v>0.034855</v>
       </c>
       <c r="D11" s="81"/>
@@ -9300,13 +9287,13 @@
       <c r="W11" s="70"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="56">
+      <c r="A12" s="55">
         <v>5</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="55">
         <v>0.76942</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="55">
         <v>0.040403</v>
       </c>
       <c r="D12" s="81"/>
@@ -9331,13 +9318,13 @@
       <c r="W12" s="70"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="56">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="55">
         <v>0.8692299999999999</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="55">
         <v>0.04759</v>
       </c>
       <c r="D13" s="81"/>
@@ -9362,13 +9349,13 @@
       <c r="W13" s="70"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="56">
+      <c r="A14" s="55">
         <v>7</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="55">
         <v>0.9638600000000001</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="55">
         <v>0.057108</v>
       </c>
       <c r="D14" s="81"/>
@@ -9393,13 +9380,13 @@
       <c r="W14" s="70"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="56">
+      <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="55">
         <v>1.0441</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="55">
         <v>0.070132</v>
       </c>
       <c r="D15" s="81"/>
@@ -9424,13 +9411,13 @@
       <c r="W15" s="70"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="56">
+      <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="55">
         <v>1.0743</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="55">
         <v>0.090921</v>
       </c>
       <c r="D16" s="81"/>
@@ -9455,13 +9442,13 @@
       <c r="W16" s="70"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="56">
+      <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="55">
         <v>1.0807</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="55">
         <v>0.11193</v>
       </c>
       <c r="D17" s="81"/>
@@ -9486,13 +9473,13 @@
       <c r="W17" s="70"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="56">
+      <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="55">
         <v>1.0379</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="55">
         <v>0.13254</v>
       </c>
       <c r="D18" s="81"/>
@@ -9517,13 +9504,13 @@
       <c r="W18" s="70"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="56">
+      <c r="A19" s="55">
         <v>12</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="55">
         <v>1.034</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="55">
         <v>0.15645</v>
       </c>
       <c r="D19" s="81"/>
@@ -12077,7 +12064,7 @@
       <c r="O123" s="86"/>
       <c r="P123" s="86"/>
       <c r="Q123" s="86"/>
-      <c r="R123" s="24"/>
+      <c r="R123" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Student Version Summer 25/Design Input Files/Design Input File_V25-00-SUMMER.xlsx
+++ b/Student Version Summer 25/Design Input Files/Design Input File_V25-00-SUMMER.xlsx
@@ -729,6 +729,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="G2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>Tenley Hollman:
+6061-T6 Aluminum</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -756,7 +769,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1450,6 +1463,12 @@
     <t>rho_material_x</t>
   </si>
   <si>
+    <t>Config3</t>
+  </si>
+  <si>
+    <t>rho_material_y</t>
+  </si>
+  <si>
     <t>Cl_neg5</t>
   </si>
   <si>
@@ -1570,6 +1589,9 @@
     <t>NACA 2412</t>
   </si>
   <si>
+    <t>BACJ</t>
+  </si>
+  <si>
     <t>rhoA_foamboard</t>
   </si>
   <si>
@@ -1580,9 +1602,6 @@
   </si>
   <si>
     <t>rho_balsa</t>
-  </si>
-  <si>
-    <t>rho_material_y</t>
   </si>
   <si>
     <t>NONE</t>
@@ -2176,7 +2195,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2360,10 +2379,16 @@
     <xf numFmtId="59" fontId="0" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2548,7 +2573,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 1" descr="Picture 1"/>
+        <xdr:cNvPr id="57" name="Picture 1" descr="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2593,7 +2618,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 2" descr="Picture 2"/>
+        <xdr:cNvPr id="58" name="Picture 2" descr="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2643,7 +2668,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Graphic 1" descr="Graphic 1"/>
+        <xdr:cNvPr id="60" name="Graphic 1" descr="Graphic 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2688,7 +2713,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Graphic 3" descr="Graphic 3"/>
+        <xdr:cNvPr id="61" name="Graphic 3" descr="Graphic 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2733,7 +2758,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Graphic 4" descr="Graphic 4"/>
+        <xdr:cNvPr id="62" name="Graphic 4" descr="Graphic 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5930,56 +5955,161 @@
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="45"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="45"/>
+      <c r="A4" t="s" s="30">
+        <v>212</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="39">
+        <v>254</v>
+      </c>
+      <c r="D4" s="39">
+        <v>70.66</v>
+      </c>
+      <c r="E4" s="39">
+        <v>6.5</v>
+      </c>
+      <c r="F4" s="39" cm="1">
+        <f t="array" ref="F4">D4/E4</f>
+        <v>10.8707692307692</v>
+      </c>
+      <c r="G4" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="39" cm="1">
+        <f t="array" ref="H4">PI()*0.25*6.5*6.5</f>
+        <v>33.1830724035422</v>
+      </c>
+      <c r="I4" s="39">
+        <v>0</v>
+      </c>
+      <c r="J4" s="39" cm="1">
+        <f t="array" ref="J4">(PI()*E4*D4)+(0.5*PI()*(E4^2))</f>
+        <v>1509.268234674340</v>
+      </c>
+      <c r="K4" s="39">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s" s="43">
+        <v>213</v>
+      </c>
+      <c r="M4" s="41">
+        <v>511</v>
+      </c>
+      <c r="N4" s="39">
+        <v>1022</v>
+      </c>
+      <c r="O4" s="39">
+        <v>7</v>
+      </c>
+      <c r="P4" s="39">
+        <v>0.284</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>0</v>
+      </c>
+      <c r="R4" s="39">
+        <v>0</v>
+      </c>
+      <c r="S4" s="39">
+        <v>1.1</v>
+      </c>
+      <c r="T4" t="s" s="43">
+        <v>213</v>
+      </c>
+      <c r="U4" s="41">
+        <v>136.6</v>
+      </c>
+      <c r="V4" s="39">
+        <v>273.2</v>
+      </c>
+      <c r="W4" s="39">
+        <v>3.57</v>
+      </c>
+      <c r="X4" s="39">
+        <v>0.265</v>
+      </c>
+      <c r="Y4" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="39" cm="1">
+        <f t="array" ref="Z4">(2/3)*(1.4)+(1+X4+X4^2)/(1+X4)</f>
+        <v>1.98884716732543</v>
+      </c>
+      <c r="AA4" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="AB4" t="s" s="43">
+        <v>213</v>
+      </c>
+      <c r="AC4" s="41">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="AD4" s="39">
+        <v>144.2</v>
+      </c>
+      <c r="AE4" s="39">
+        <v>1.3</v>
+      </c>
+      <c r="AF4" s="39">
+        <v>0.33</v>
+      </c>
+      <c r="AG4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="39" cm="1">
+        <f t="array" ref="AH4">(2/3)*(1.4)+(1+AF4+AF4^2)/(1+AF4)</f>
+        <v>2.01521303258145</v>
+      </c>
+      <c r="AI4" s="39">
+        <v>1.1</v>
+      </c>
+      <c r="AJ4" t="s" s="43">
+        <v>213</v>
+      </c>
+      <c r="AK4" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="s" s="43">
+        <v>213</v>
+      </c>
+      <c r="AS4" s="41">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="45"/>
@@ -6340,115 +6470,115 @@
         <v>135</v>
       </c>
       <c r="E1" t="s" s="51">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s" s="51">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s" s="51">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s" s="51">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I1" t="s" s="51">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J1" t="s" s="51">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K1" t="s" s="51">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L1" t="s" s="51">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M1" t="s" s="51">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N1" t="s" s="51">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O1" t="s" s="51">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P1" t="s" s="51">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q1" t="s" s="51">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R1" t="s" s="51">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S1" t="s" s="51">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T1" t="s" s="51">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="U1" t="s" s="51">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="V1" t="s" s="51">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="W1" t="s" s="50">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="X1" t="s" s="51">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Y1" t="s" s="51">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Z1" t="s" s="51">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AA1" t="s" s="51">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AB1" t="s" s="51">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AC1" t="s" s="51">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AD1" t="s" s="51">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AE1" t="s" s="51">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF1" t="s" s="51">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG1" t="s" s="51">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AH1" t="s" s="51">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI1" t="s" s="51">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AJ1" t="s" s="51">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK1" t="s" s="51">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AL1" t="s" s="51">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AM1" t="s" s="51">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AN1" t="s" s="51">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AO1" t="s" s="51">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AP1" t="s" s="50">
         <v>141</v>
@@ -6486,7 +6616,7 @@
         <v>208</v>
       </c>
       <c r="B2" t="s" s="52">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C2" s="53">
         <v>0.08699999999999999</v>
@@ -6611,7 +6741,7 @@
         <v>0.024643</v>
       </c>
       <c r="AQ2" t="s" s="52">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR2" s="53">
         <v>0.08699999999999999</v>
@@ -6620,7 +6750,7 @@
         <v>0.302</v>
       </c>
       <c r="AT2" t="s" s="52">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AU2" s="53">
         <v>0.08699999999999999</v>
@@ -6643,7 +6773,7 @@
         <v>210</v>
       </c>
       <c r="B3" t="s" s="52">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C3" s="53">
         <v>0.12</v>
@@ -6770,7 +6900,7 @@
         <v>0.033056</v>
       </c>
       <c r="AQ3" t="s" s="52">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AR3" s="53">
         <v>0.12</v>
@@ -6779,7 +6909,7 @@
         <v>0.3</v>
       </c>
       <c r="AT3" t="s" s="52">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AU3" s="53">
         <v>0.12</v>
@@ -6798,375 +6928,479 @@
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
+      <c r="A4" t="s" s="52">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s" s="52">
+        <v>254</v>
+      </c>
+      <c r="C4" s="53">
+        <v>0.094</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="53">
+        <v>-0.3505</v>
+      </c>
+      <c r="F4" s="53">
+        <v>-0.2514</v>
+      </c>
+      <c r="G4" s="53">
+        <v>-0.1493</v>
+      </c>
+      <c r="H4" s="53">
+        <v>-0.0318</v>
+      </c>
+      <c r="I4" s="53">
+        <v>0.0912</v>
+      </c>
+      <c r="J4" s="53">
+        <v>0.2133</v>
+      </c>
+      <c r="K4" s="53">
+        <v>0.3048</v>
+      </c>
+      <c r="L4" s="53">
+        <v>0.318</v>
+      </c>
+      <c r="M4" s="53">
+        <v>0.3925</v>
+      </c>
+      <c r="N4" s="53">
+        <v>0.4889</v>
+      </c>
+      <c r="O4" s="53">
+        <v>0.5855</v>
+      </c>
+      <c r="P4" s="53">
+        <v>0.6808</v>
+      </c>
+      <c r="Q4" s="53">
+        <v>0.7744</v>
+      </c>
+      <c r="R4" s="53">
+        <v>0.8721</v>
+      </c>
+      <c r="S4" s="53">
+        <v>0.9729</v>
+      </c>
+      <c r="T4" s="53">
+        <v>1.061</v>
+      </c>
+      <c r="U4" s="53">
+        <v>1.1263</v>
+      </c>
+      <c r="V4" s="54">
+        <v>0.9165</v>
+      </c>
+      <c r="W4" s="56" cm="1">
+        <f t="array" ref="W4">MAX(E4:V4)</f>
+        <v>1.1263</v>
+      </c>
+      <c r="X4" s="61">
+        <v>0.00953</v>
+      </c>
+      <c r="Y4" s="62">
+        <v>0.00852</v>
+      </c>
+      <c r="Z4" s="62">
+        <v>0.00741</v>
+      </c>
+      <c r="AA4" s="62">
+        <v>0.00584</v>
+      </c>
+      <c r="AB4" s="62">
+        <v>0.0055</v>
+      </c>
+      <c r="AC4" s="62">
+        <v>0.00509</v>
+      </c>
+      <c r="AD4" s="62">
+        <v>0.00506</v>
+      </c>
+      <c r="AE4" s="62">
+        <v>0.00743</v>
+      </c>
+      <c r="AF4" s="62">
+        <v>0.009480000000000001</v>
+      </c>
+      <c r="AG4" s="62">
+        <v>0.01033</v>
+      </c>
+      <c r="AH4" s="62">
+        <v>0.01132</v>
+      </c>
+      <c r="AI4" s="62">
+        <v>0.01256</v>
+      </c>
+      <c r="AJ4" s="62">
+        <v>0.01441</v>
+      </c>
+      <c r="AK4" s="62">
+        <v>0.01634</v>
+      </c>
+      <c r="AL4" s="62">
+        <v>0.02052</v>
+      </c>
+      <c r="AM4" s="62">
+        <v>0.02498</v>
+      </c>
+      <c r="AN4" s="62">
+        <v>0.03112</v>
+      </c>
+      <c r="AO4" s="63">
+        <v>0.07156</v>
+      </c>
+      <c r="AP4" s="57" cm="1">
+        <f t="array" ref="AP4">MIN(X4:AO4)</f>
+        <v>0.00506</v>
+      </c>
+      <c r="AQ4" t="s" s="52">
+        <v>254</v>
+      </c>
+      <c r="AR4" s="53">
+        <v>0.094</v>
+      </c>
+      <c r="AS4" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="AT4" t="s" s="52">
+        <v>254</v>
+      </c>
+      <c r="AU4" s="53">
+        <v>0.094</v>
+      </c>
+      <c r="AV4" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="AW4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="61"/>
-      <c r="AV5" s="61"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="61"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="64"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="61"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="61"/>
-      <c r="AX6" s="61"/>
-      <c r="AY6" s="61"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="61"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="61"/>
-      <c r="AU8" s="61"/>
-      <c r="AV8" s="61"/>
-      <c r="AW8" s="61"/>
-      <c r="AX8" s="61"/>
-      <c r="AY8" s="61"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="64"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="61"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="61"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7185,87 +7419,87 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.85156" style="63" customWidth="1"/>
-    <col min="7" max="7" width="10" style="63" customWidth="1"/>
-    <col min="8" max="18" width="8.85156" style="63" customWidth="1"/>
-    <col min="19" max="20" width="10.1719" style="63" customWidth="1"/>
-    <col min="21" max="22" width="8.85156" style="63" customWidth="1"/>
-    <col min="23" max="23" width="10.5" style="63" customWidth="1"/>
-    <col min="24" max="24" width="9.85156" style="63" customWidth="1"/>
-    <col min="25" max="16384" width="8.85156" style="63" customWidth="1"/>
+    <col min="1" max="6" width="8.85156" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10" style="65" customWidth="1"/>
+    <col min="8" max="18" width="8.85156" style="65" customWidth="1"/>
+    <col min="19" max="20" width="10.1719" style="65" customWidth="1"/>
+    <col min="21" max="22" width="8.85156" style="65" customWidth="1"/>
+    <col min="23" max="23" width="10.5" style="65" customWidth="1"/>
+    <col min="24" max="24" width="9.85156" style="65" customWidth="1"/>
+    <col min="25" max="16384" width="8.85156" style="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1">
-      <c r="A1" t="s" s="64">
+      <c r="A1" t="s" s="66">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="64">
+      <c r="B1" t="s" s="66">
         <v>161</v>
       </c>
-      <c r="C1" t="s" s="64">
+      <c r="C1" t="s" s="66">
         <v>164</v>
       </c>
-      <c r="D1" t="s" s="64">
+      <c r="D1" t="s" s="66">
         <v>166</v>
       </c>
-      <c r="E1" t="s" s="64">
+      <c r="E1" t="s" s="66">
         <v>168</v>
       </c>
-      <c r="F1" t="s" s="64">
+      <c r="F1" t="s" s="66">
         <v>170</v>
       </c>
-      <c r="G1" t="s" s="65">
+      <c r="G1" t="s" s="67">
         <v>172</v>
       </c>
-      <c r="H1" t="s" s="64">
+      <c r="H1" t="s" s="66">
         <v>174</v>
       </c>
-      <c r="I1" t="s" s="64">
+      <c r="I1" t="s" s="66">
         <v>176</v>
       </c>
-      <c r="J1" t="s" s="65">
+      <c r="J1" t="s" s="67">
         <v>178</v>
       </c>
-      <c r="K1" t="s" s="64">
+      <c r="K1" t="s" s="66">
         <v>180</v>
       </c>
-      <c r="L1" t="s" s="64">
+      <c r="L1" t="s" s="66">
         <v>182</v>
       </c>
-      <c r="M1" t="s" s="65">
+      <c r="M1" t="s" s="67">
         <v>184</v>
       </c>
-      <c r="N1" t="s" s="64">
+      <c r="N1" t="s" s="66">
         <v>186</v>
       </c>
-      <c r="O1" t="s" s="64">
+      <c r="O1" t="s" s="66">
         <v>188</v>
       </c>
-      <c r="P1" t="s" s="65">
+      <c r="P1" t="s" s="67">
         <v>190</v>
       </c>
-      <c r="Q1" t="s" s="64">
+      <c r="Q1" t="s" s="66">
         <v>192</v>
       </c>
-      <c r="R1" t="s" s="64">
+      <c r="R1" t="s" s="66">
         <v>194</v>
       </c>
-      <c r="S1" t="s" s="64">
+      <c r="S1" t="s" s="66">
         <v>196</v>
       </c>
-      <c r="T1" t="s" s="64">
+      <c r="T1" t="s" s="66">
         <v>198</v>
       </c>
-      <c r="U1" t="s" s="64">
+      <c r="U1" t="s" s="66">
         <v>200</v>
       </c>
-      <c r="V1" t="s" s="64">
+      <c r="V1" t="s" s="66">
         <v>202</v>
       </c>
-      <c r="W1" t="s" s="64">
+      <c r="W1" t="s" s="66">
         <v>204</v>
       </c>
-      <c r="X1" t="s" s="64">
+      <c r="X1" t="s" s="66">
         <v>206</v>
       </c>
     </row>
@@ -7811,940 +8045,940 @@
       <c r="X20" s="45"/>
     </row>
     <row r="21" ht="14.4" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="68"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="70"/>
     </row>
     <row r="22" ht="14.4" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
     </row>
     <row r="23" ht="14.4" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
     </row>
     <row r="24" ht="14.4" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
     </row>
     <row r="25" ht="14.4" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
     </row>
     <row r="26" ht="14.4" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="70"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
     </row>
     <row r="27" ht="14.4" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
     </row>
     <row r="28" ht="14.4" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="70"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
     </row>
     <row r="29" ht="14.4" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
     </row>
     <row r="30" ht="14.4" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
     </row>
     <row r="31" ht="14.4" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="70"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
     </row>
     <row r="32" ht="14.4" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
     </row>
     <row r="33" ht="14.4" customHeight="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
     </row>
     <row r="34" ht="14.4" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="70"/>
-      <c r="R34" s="70"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="70"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="70"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
     </row>
     <row r="35" ht="14.4" customHeight="1">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="70"/>
-      <c r="V35" s="70"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="70"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
     </row>
     <row r="36" ht="14.4" customHeight="1">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="70"/>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
     </row>
     <row r="37" ht="14.4" customHeight="1">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="70"/>
-      <c r="R37" s="70"/>
-      <c r="S37" s="70"/>
-      <c r="T37" s="70"/>
-      <c r="U37" s="70"/>
-      <c r="V37" s="70"/>
-      <c r="W37" s="70"/>
-      <c r="X37" s="70"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
     </row>
     <row r="38" ht="14.4" customHeight="1">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="70"/>
-      <c r="W38" s="70"/>
-      <c r="X38" s="70"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
     </row>
     <row r="39" ht="14.4" customHeight="1">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="70"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="70"/>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
     </row>
     <row r="40" ht="14.4" customHeight="1">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
     </row>
     <row r="41" ht="14.4" customHeight="1">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="70"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="70"/>
-      <c r="V41" s="70"/>
-      <c r="W41" s="70"/>
-      <c r="X41" s="70"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="72"/>
     </row>
     <row r="42" ht="14.4" customHeight="1">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
     </row>
     <row r="43" ht="14.4" customHeight="1">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="72"/>
     </row>
     <row r="44" ht="14.4" customHeight="1">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="70"/>
-      <c r="S44" s="70"/>
-      <c r="T44" s="70"/>
-      <c r="U44" s="70"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
     </row>
     <row r="45" ht="14.4" customHeight="1">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="70"/>
-      <c r="R45" s="70"/>
-      <c r="S45" s="70"/>
-      <c r="T45" s="70"/>
-      <c r="U45" s="70"/>
-      <c r="V45" s="70"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="70"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="72"/>
     </row>
     <row r="46" ht="14.4" customHeight="1">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="70"/>
-      <c r="S46" s="70"/>
-      <c r="T46" s="70"/>
-      <c r="U46" s="70"/>
-      <c r="V46" s="70"/>
-      <c r="W46" s="70"/>
-      <c r="X46" s="70"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
     </row>
     <row r="47" ht="14.4" customHeight="1">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="70"/>
-      <c r="S47" s="70"/>
-      <c r="T47" s="70"/>
-      <c r="U47" s="70"/>
-      <c r="V47" s="70"/>
-      <c r="W47" s="70"/>
-      <c r="X47" s="70"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="72"/>
     </row>
     <row r="48" ht="14.4" customHeight="1">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="72"/>
     </row>
     <row r="49" ht="14.4" customHeight="1">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="70"/>
-      <c r="S49" s="70"/>
-      <c r="T49" s="70"/>
-      <c r="U49" s="70"/>
-      <c r="V49" s="70"/>
-      <c r="W49" s="70"/>
-      <c r="X49" s="70"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="72"/>
+      <c r="X49" s="72"/>
     </row>
     <row r="50" ht="14.4" customHeight="1">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="70"/>
-      <c r="S50" s="70"/>
-      <c r="T50" s="70"/>
-      <c r="U50" s="70"/>
-      <c r="V50" s="70"/>
-      <c r="W50" s="70"/>
-      <c r="X50" s="70"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="72"/>
+      <c r="V50" s="72"/>
+      <c r="W50" s="72"/>
+      <c r="X50" s="72"/>
     </row>
     <row r="51" ht="14.4" customHeight="1">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="70"/>
-      <c r="S51" s="70"/>
-      <c r="T51" s="70"/>
-      <c r="U51" s="70"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="70"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="72"/>
+      <c r="S51" s="72"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="72"/>
+      <c r="V51" s="72"/>
+      <c r="W51" s="72"/>
+      <c r="X51" s="72"/>
     </row>
     <row r="52" ht="14.4" customHeight="1">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="70"/>
-      <c r="S52" s="70"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="70"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="70"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="72"/>
+      <c r="W52" s="72"/>
+      <c r="X52" s="72"/>
     </row>
     <row r="53" ht="14.4" customHeight="1">
-      <c r="A53" s="70"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="70"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="72"/>
     </row>
     <row r="54" ht="14.4" customHeight="1">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="70"/>
-      <c r="S54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="U54" s="70"/>
-      <c r="V54" s="70"/>
-      <c r="W54" s="70"/>
-      <c r="X54" s="70"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="72"/>
     </row>
     <row r="55" ht="14.4" customHeight="1">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
-      <c r="R55" s="70"/>
-      <c r="S55" s="70"/>
-      <c r="T55" s="70"/>
-      <c r="U55" s="70"/>
-      <c r="V55" s="70"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="70"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="72"/>
+      <c r="L55" s="72"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="72"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="72"/>
+      <c r="U55" s="72"/>
+      <c r="V55" s="72"/>
+      <c r="W55" s="72"/>
+      <c r="X55" s="72"/>
     </row>
     <row r="56" ht="14.4" customHeight="1">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="70"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="70"/>
-      <c r="S56" s="70"/>
-      <c r="T56" s="70"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="70"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="70"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="72"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="72"/>
+      <c r="V56" s="72"/>
+      <c r="W56" s="72"/>
+      <c r="X56" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8765,13 +8999,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.1719" style="71" customWidth="1"/>
-    <col min="2" max="2" width="15.6719" style="71" customWidth="1"/>
-    <col min="3" max="3" width="8.17188" style="71" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="71" customWidth="1"/>
-    <col min="5" max="5" width="9.35156" style="71" customWidth="1"/>
-    <col min="6" max="8" width="14.1719" style="71" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="71" customWidth="1"/>
+    <col min="1" max="1" width="13.1719" style="73" customWidth="1"/>
+    <col min="2" max="2" width="15.6719" style="73" customWidth="1"/>
+    <col min="3" max="3" width="8.17188" style="73" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="73" customWidth="1"/>
+    <col min="5" max="5" width="9.35156" style="73" customWidth="1"/>
+    <col min="6" max="8" width="14.1719" style="73" customWidth="1"/>
+    <col min="9" max="16384" width="8.85156" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -8779,148 +9013,148 @@
         <v>209</v>
       </c>
       <c r="B1" t="s" s="26">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s" s="26">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s" s="26">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s" s="26">
-        <v>255</v>
-      </c>
-      <c r="F1" t="s" s="72">
+        <v>258</v>
+      </c>
+      <c r="F1" t="s" s="74">
         <v>211</v>
       </c>
-      <c r="G1" t="s" s="72">
-        <v>256</v>
-      </c>
-      <c r="H1" t="s" s="73">
-        <v>257</v>
+      <c r="G1" t="s" s="74">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s" s="75">
+        <v>259</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="74">
+      <c r="A2" s="76">
         <v>20.8</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B2" s="76">
         <v>60</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="76">
         <v>1240</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="76">
         <v>800</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="76">
         <v>96.09999999999999</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2" s="77">
         <v>2780</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2" s="77">
+        <v>2700</v>
+      </c>
+      <c r="H2" s="76">
         <v>0</v>
       </c>
-      <c r="H2" s="74">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="76">
-        <v>258</v>
-      </c>
-      <c r="B3" t="s" s="76">
-        <v>258</v>
-      </c>
-      <c r="C3" t="s" s="76">
-        <v>258</v>
-      </c>
-      <c r="D3" t="s" s="76">
-        <v>258</v>
-      </c>
-      <c r="E3" t="s" s="76">
-        <v>258</v>
-      </c>
-      <c r="F3" t="s" s="76">
-        <v>258</v>
-      </c>
-      <c r="G3" t="s" s="76">
-        <v>258</v>
-      </c>
-      <c r="H3" t="s" s="76">
-        <v>258</v>
+      <c r="A3" t="s" s="78">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s" s="78">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s" s="78">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s" s="78">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s" s="78">
+        <v>260</v>
+      </c>
+      <c r="F3" t="s" s="78">
+        <v>260</v>
+      </c>
+      <c r="G3" t="s" s="78">
+        <v>260</v>
+      </c>
+      <c r="H3" t="s" s="78">
+        <v>260</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8941,40 +9175,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="23" width="8.85156" style="78" customWidth="1"/>
-    <col min="24" max="16384" width="8.85156" style="78" customWidth="1"/>
+    <col min="1" max="23" width="8.85156" style="80" customWidth="1"/>
+    <col min="24" max="16384" width="8.85156" style="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="79">
-        <v>259</v>
-      </c>
-      <c r="B1" t="s" s="80">
-        <v>260</v>
-      </c>
-      <c r="C1" t="s" s="80">
+      <c r="A1" t="s" s="81">
         <v>261</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
+      <c r="B1" t="s" s="82">
+        <v>262</v>
+      </c>
+      <c r="C1" t="s" s="82">
+        <v>263</v>
+      </c>
+      <c r="D1" s="83"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="55">
@@ -8986,26 +9220,26 @@
       <c r="C2" s="55">
         <v>0.044251</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="55">
@@ -9017,26 +9251,26 @@
       <c r="C3" s="55">
         <v>0.033783</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="55">
@@ -9048,26 +9282,26 @@
       <c r="C4" s="55">
         <v>0.028627</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="55">
@@ -9079,26 +9313,26 @@
       <c r="C5" s="55">
         <v>0.025864</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="55">
@@ -9110,26 +9344,26 @@
       <c r="C6" s="55">
         <v>0.024643</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="55">
@@ -9141,26 +9375,26 @@
       <c r="C7" s="55">
         <v>0.025099</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="55">
@@ -9172,26 +9406,26 @@
       <c r="C8" s="55">
         <v>0.025635</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="55">
@@ -9203,26 +9437,26 @@
       <c r="C9" s="55">
         <v>0.02766</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="55">
@@ -9234,26 +9468,26 @@
       <c r="C10" s="55">
         <v>0.030677</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="55">
@@ -9265,26 +9499,26 @@
       <c r="C11" s="55">
         <v>0.034855</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="55">
@@ -9296,26 +9530,26 @@
       <c r="C12" s="55">
         <v>0.040403</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="55">
@@ -9327,26 +9561,26 @@
       <c r="C13" s="55">
         <v>0.04759</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="55">
@@ -9358,26 +9592,26 @@
       <c r="C14" s="55">
         <v>0.057108</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="55">
@@ -9389,26 +9623,26 @@
       <c r="C15" s="55">
         <v>0.070132</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="55">
@@ -9420,26 +9654,26 @@
       <c r="C16" s="55">
         <v>0.090921</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="55">
@@ -9451,26 +9685,26 @@
       <c r="C17" s="55">
         <v>0.11193</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="55">
@@ -9482,26 +9716,26 @@
       <c r="C18" s="55">
         <v>0.13254</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="55">
@@ -9513,76 +9747,76 @@
       <c r="C19" s="55">
         <v>0.15645</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
     </row>
     <row r="20" ht="14.4" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
     </row>
     <row r="21" ht="14.4" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9602,8 +9836,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="18" width="10" style="85" customWidth="1"/>
-    <col min="19" max="16384" width="10" style="85" customWidth="1"/>
+    <col min="1" max="18" width="10" style="87" customWidth="1"/>
+    <col min="19" max="16384" width="10" style="87" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1">
@@ -12048,22 +12282,22 @@
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="A123" s="20"/>
-      <c r="B123" s="86"/>
-      <c r="C123" s="86"/>
-      <c r="D123" s="86"/>
-      <c r="E123" s="86"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="86"/>
-      <c r="H123" s="86"/>
-      <c r="I123" s="86"/>
-      <c r="J123" s="86"/>
-      <c r="K123" s="86"/>
-      <c r="L123" s="86"/>
-      <c r="M123" s="86"/>
-      <c r="N123" s="86"/>
-      <c r="O123" s="86"/>
-      <c r="P123" s="86"/>
-      <c r="Q123" s="86"/>
+      <c r="B123" s="88"/>
+      <c r="C123" s="88"/>
+      <c r="D123" s="88"/>
+      <c r="E123" s="88"/>
+      <c r="F123" s="88"/>
+      <c r="G123" s="88"/>
+      <c r="H123" s="88"/>
+      <c r="I123" s="88"/>
+      <c r="J123" s="88"/>
+      <c r="K123" s="88"/>
+      <c r="L123" s="88"/>
+      <c r="M123" s="88"/>
+      <c r="N123" s="88"/>
+      <c r="O123" s="88"/>
+      <c r="P123" s="88"/>
+      <c r="Q123" s="88"/>
       <c r="R123" s="21"/>
     </row>
   </sheetData>

--- a/Student Version Summer 25/Design Input Files/Design Input File_V25-00-SUMMER.xlsx
+++ b/Student Version Summer 25/Design Input Files/Design Input File_V25-00-SUMMER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natei\Documents\MATLAB\Summer 2025\ASEN 2804\Student Version Summer 25\Design Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079451CE-3AC2-476F-BE1C-22803AD82D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5A67E9-8936-4F25-A5FE-81FEA4FB45E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
